--- a/flavour_foodname.xlsx
+++ b/flavour_foodname.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>food_flavour</t>
   </si>
@@ -51,84 +51,153 @@
     <t>Banan, rå</t>
   </si>
   <si>
-    <t>Delta-Cadinene \nHerbal &amp; woody</t>
-  </si>
-  <si>
-    <t>Neomenthol \nMinty &amp; Sweet</t>
-  </si>
-  <si>
-    <t>Epicatechin \nBitter</t>
-  </si>
-  <si>
-    <t>(Z)-Cinnamyl Alcohol \nCinnamic &amp; Spicy</t>
-  </si>
-  <si>
-    <t>1-Dodecanol \nFatty &amp; Earthy</t>
-  </si>
-  <si>
-    <t>Apple \n172</t>
-  </si>
-  <si>
-    <t>Grape \n149</t>
-  </si>
-  <si>
-    <t>Strawberry \n149</t>
-  </si>
-  <si>
-    <t>Tea \n140</t>
-  </si>
-  <si>
-    <t>Jordbær, rå</t>
-  </si>
-  <si>
-    <t>Straberry \n206 Flavor Molecules</t>
+    <t>Delta-Cadinene
+ (Herbal &amp; Woody)</t>
   </si>
   <si>
     <t>Neomenthol
-Minty &amp; Sweet</t>
+(Minty &amp; Sweet)</t>
   </si>
   <si>
     <t>Epicatechin 
-Bitter</t>
+(Bitter)</t>
   </si>
   <si>
     <t>(Z)-Cinnamyl Alcohol
-Cinnamic &amp; Spicy</t>
+(Cinnamic &amp; Spicy)</t>
   </si>
   <si>
     <t>1-Dodecanol
-Fatty &amp; Earthy</t>
+(Fatty &amp; Earthy)</t>
+  </si>
+  <si>
+    <t>Banana
+(206 flavor 
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+ (149 flavor
+molecules)</t>
   </si>
   <si>
     <t>Apple
-172 molecules</t>
+(172 flavor
+molecules)</t>
   </si>
   <si>
     <t>Strawberry
-149 molecules</t>
+(149 flavor
+molecules)</t>
   </si>
   <si>
     <t>Tea
-140 molecules</t>
+(140 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Pineapple
+(220 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Ananas, rå</t>
+  </si>
+  <si>
+    <t>item_pair5</t>
+  </si>
+  <si>
+    <t>item_pair6</t>
+  </si>
+  <si>
+    <t>item_pair7</t>
+  </si>
+  <si>
+    <t>item_pair8</t>
+  </si>
+  <si>
+    <t>item_pair9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple
+(168 flavor
+molecules)
+</t>
+  </si>
+  <si>
+    <t>Strawberry
+(159 flavor
+molecules)</t>
   </si>
   <si>
     <t>Grape
- 149 molecules</t>
-  </si>
-  <si>
-    <t>Banana
-206 Flavor molecules</t>
-  </si>
-  <si>
-    <t>Delta-Cadinene
- Herbal &amp; Woody</t>
+(146 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Cocoa
+(146 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(145 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(145 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Passionfruit (142 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Papaya
+(140 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Peach
+(139 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Alpha-Terpineol
+(Mint &amp; Citrus)</t>
+  </si>
+  <si>
+    <t>passionfruit
+(140 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Papaya
+(140 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Guava
+(140 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Melon
+(140 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apricot
+(140 flavor
+molecules)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +231,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,23 +273,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,27 +609,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
+      <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -540,76 +667,357 @@
       <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30">
+      <c r="L1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="60">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="75">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flavour_foodname.xlsx
+++ b/flavour_foodname.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>food_flavour</t>
   </si>
@@ -191,6 +191,18 @@
     <t>Apricot
 (140 flavor
 molecules)</t>
+  </si>
+  <si>
+    <t>flavour_6</t>
+  </si>
+  <si>
+    <t>flavour_7</t>
+  </si>
+  <si>
+    <t>flavour_8</t>
+  </si>
+  <si>
+    <t>flavour_9</t>
   </si>
 </sst>
 </file>
@@ -609,33 +621,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -656,34 +669,46 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60">
+    <row r="2" spans="1:20" ht="60">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -706,34 +731,46 @@
         <v>15</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="75">
+    <row r="3" spans="1:20" ht="60">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -755,35 +792,47 @@
       <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:20">
       <c r="A4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -794,8 +843,12 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -806,8 +859,12 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -818,8 +875,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -830,8 +891,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -842,8 +907,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -854,8 +923,12 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -866,8 +939,12 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -878,8 +955,12 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -890,8 +971,12 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -902,8 +987,12 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4"/>
@@ -915,8 +1004,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="9"/>
       <c r="C15" s="4"/>
@@ -928,8 +1021,12 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="4"/>
       <c r="B16" s="9"/>
       <c r="C16" s="4"/>
@@ -941,8 +1038,12 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
@@ -954,8 +1055,12 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
@@ -967,8 +1072,12 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4"/>
@@ -980,8 +1089,12 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4"/>
@@ -993,8 +1106,12 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4"/>
@@ -1006,17 +1123,21 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:15">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:15">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:15">
       <c r="A26" s="3"/>
     </row>
   </sheetData>

--- a/flavour_foodname.xlsx
+++ b/flavour_foodname.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>food_flavour</t>
   </si>
@@ -203,6 +203,22 @@
   </si>
   <si>
     <t>flavour_9</t>
+  </si>
+  <si>
+    <t>Flavour6
+(Fatty &amp; Earthy)</t>
+  </si>
+  <si>
+    <t>Flavour7
+(Fatty &amp; Earthy)</t>
+  </si>
+  <si>
+    <t>Flavour8
+Fatty &amp; Earthy)</t>
+  </si>
+  <si>
+    <t>Flavour9
+(Fatty &amp; Earthy)</t>
   </si>
 </sst>
 </file>
@@ -623,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -731,16 +747,16 @@
         <v>15</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>18</v>

--- a/flavour_foodname.xlsx
+++ b/flavour_foodname.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="225">
   <si>
     <t>food_flavour</t>
   </si>
@@ -59,10 +59,6 @@
 (Minty &amp; Sweet)</t>
   </si>
   <si>
-    <t>Epicatechin 
-(Bitter)</t>
-  </si>
-  <si>
     <t>(Z)-Cinnamyl Alcohol
 (Cinnamic &amp; Spicy)</t>
   </si>
@@ -119,51 +115,11 @@
     <t>item_pair9</t>
   </si>
   <si>
-    <t xml:space="preserve">Apple
-(168 flavor
-molecules)
-</t>
-  </si>
-  <si>
-    <t>Strawberry
-(159 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Grape
-(146 flavor
-molecules)</t>
-  </si>
-  <si>
     <t>Cocoa
 (146 flavor
 molecules)</t>
   </si>
   <si>
-    <t>Mango
-(145 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Tea
-(145 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Passionfruit (142 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Papaya
-(140 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Peach
-(139 flavor
-molecules)</t>
-  </si>
-  <si>
     <t>Alpha-Terpineol
 (Mint &amp; Citrus)</t>
   </si>
@@ -205,27 +161,882 @@
     <t>flavour_9</t>
   </si>
   <si>
-    <t>Flavour6
-(Fatty &amp; Earthy)</t>
-  </si>
-  <si>
-    <t>Flavour7
-(Fatty &amp; Earthy)</t>
-  </si>
-  <si>
-    <t>Flavour8
-Fatty &amp; Earthy)</t>
-  </si>
-  <si>
-    <t>Flavour9
-(Fatty &amp; Earthy)</t>
+    <t>1-Heptanol
+(Leafy &amp; herbal)</t>
+  </si>
+  <si>
+    <t>1-Hepten-3-Ol
+(Metallic &amp; Spicy)</t>
+  </si>
+  <si>
+    <t>Epicatechin Gallate
+(Bitter-2)</t>
+  </si>
+  <si>
+    <t>Epigallocatechin
+(Bitter -3)</t>
+  </si>
+  <si>
+    <t>Epicatechin Gallate
+(Bitter -2)</t>
+  </si>
+  <si>
+    <t>Epicatechin 
+(Bitter -1)</t>
+  </si>
+  <si>
+    <t>1,3,5-Undecatriene
+()</t>
+  </si>
+  <si>
+    <t>Tomato
+(134 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Potato
+(131 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Capsicum
+(122 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Green Beans
+(127 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Aspargus
+(106 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Parsnip
+(100 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Carrot
+(111 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Pepper
+(110 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(300 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Delta-Cadinene
+(Herbal &amp; Woody)</t>
+  </si>
+  <si>
+    <t>Epicatechin
+(Bitter -1)</t>
+  </si>
+  <si>
+    <t>1-Butanol
+(Vanilla &amp; fruit)</t>
+  </si>
+  <si>
+    <t>1-Decanol
+(floral &amp; watery)</t>
+  </si>
+  <si>
+    <t>Strawberry
+(188 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(185 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(181 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Banana
+(172 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Pineapple
+(168 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apricot
+(167 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Cocoa
+(166 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Papaya
+(164 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(160 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Black Currant
+(213 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Æble, uspec.,råt</t>
+  </si>
+  <si>
+    <t>Vindrue, rå</t>
+  </si>
+  <si>
+    <t>Pære, rå</t>
+  </si>
+  <si>
+    <t>Solbær, rå</t>
+  </si>
+  <si>
+    <t>Pulegone
+()</t>
+  </si>
+  <si>
+    <t>Beta-Ocimene
+(Citrus &amp; Herb)</t>
+  </si>
+  <si>
+    <t>Tea
+(162 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Guava
+(150 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Orange
+(146 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(145 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tomato
+(145 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Red Currant
+(141 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(141 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(140 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Ginger
+(140 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(261 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>(E)-Hept-2-Enal
+(Fresh &amp; Almond)</t>
+  </si>
+  <si>
+    <t>Pear
+(149 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Orange
+(245 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Red Currant
+(143 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Bitter Orange
+(22 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Avocado
+(134 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Elderberry
+(213 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(238 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Peach
+(199 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>1-Hexanol
+(Fruity &amp; Sweet)</t>
+  </si>
+  <si>
+    <t>2,4-Octadienal
+(Fatty &amp; Fruity)</t>
+  </si>
+  <si>
+    <t>Apple
+(142 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(128 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Peach
+(126 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Strawberry
+(123 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apricot
+(121 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Banana
+(121 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(121 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Pineapple
+(119 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(118 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Kiwifruit
+(147 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(185 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(180 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Strawberry
+(166 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Cocoa
+(157 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apricot
+(155 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(155 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Passionfruit
+(153 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tomato
+(152 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Banana
+(149 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>(Z)-Hex-3-En-1-Ol
+(Leafy &amp; Herbal)</t>
+  </si>
+  <si>
+    <t>Apple
+(128 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Pineapple
+(125 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(124 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tomato
+(120 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(119 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Potato
+(119 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Black Currant
+(118 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Fig
+(118 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Gamma-Cadinene
+(Wood)</t>
+  </si>
+  <si>
+    <t>2,4-Decadienal
+(Citrus &amp; Nut)</t>
+  </si>
+  <si>
+    <t>Apperlsion, rå</t>
+  </si>
+  <si>
+    <t>Mango, rå</t>
+  </si>
+  <si>
+    <t>Figen, rå</t>
+  </si>
+  <si>
+    <t>Kiwi, rå</t>
+  </si>
+  <si>
+    <t>Grapefrugt, rå</t>
+  </si>
+  <si>
+    <t>Avocado, rå</t>
+  </si>
+  <si>
+    <t>Blomme, rrå</t>
+  </si>
+  <si>
+    <t>Ribs, rå</t>
+  </si>
+  <si>
+    <t>Hyldebær, rå</t>
+  </si>
+  <si>
+    <t>Tea
+(170 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mandarin Orange
+(165 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Lemon
+(163 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(153 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Ginger
+(151 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Pepper
+(148 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(147 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Black Currant
+(146 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Guava
+(149 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>1-Octen-3-Ol
+(Raw, Fishy, Earthy)</t>
+  </si>
+  <si>
+    <t>1-Nonanol
+(Fatty, Dusty,Rose)</t>
+  </si>
+  <si>
+    <t>1-Nonanol
+(Fatty, Dusty, Rose)</t>
+  </si>
+  <si>
+    <t>1-Octanol
+(Burnt, Orange, Rose)</t>
+  </si>
+  <si>
+    <t>Linalool
+(Fresh &amp; Floral)</t>
+  </si>
+  <si>
+    <t>Dodecanal
+(Citrus, Floral)</t>
+  </si>
+  <si>
+    <t>Citronellic Acid
+(Smoky,Fatty,Floral)</t>
+  </si>
+  <si>
+    <t>Acetone
+(Solvent, apple, pear)</t>
+  </si>
+  <si>
+    <t>Acetic Acid
+(Sour,Pungent,Sharp)</t>
+  </si>
+  <si>
+    <t>Acetaldehyde
+(Ethereal &amp; Fruity)</t>
+  </si>
+  <si>
+    <t>Acetal
+(Cream, nut, earthy)</t>
+  </si>
+  <si>
+    <t>Black Currant
+(141 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(130 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Plum
+(123 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tomato
+(122 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(121 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Peach
+(121 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(119 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Orange
+(110 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(14 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(14 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mandarin Orange
+(14 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Cardamom
+(14 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Lemon
+(14 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Lime
+(14 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(13 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(12 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Ginger
+(12 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>1-Phenylethyl Acetate
+(Bitter, Musty, Floral)</t>
+  </si>
+  <si>
+    <t>(5E)-3,5-dimethylocta
+-1,5,7-trien-3-ol
+(Fennel, Sweet,Tropical))</t>
+  </si>
+  <si>
+    <t>(Z)-Hex-3-En-1-Ol
+(Leafy, Grass, Foliage)</t>
+  </si>
+  <si>
+    <t>1-P-Menthen-9-Al
+()</t>
+  </si>
+  <si>
+    <t>10-Undecenoic Acid
+(Sweet, Woody)</t>
+  </si>
+  <si>
+    <t>2,3-Butanedione
+(Butter,Caramel, Sweet)</t>
+  </si>
+  <si>
+    <t>Tea
+(122 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(119 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(118 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(116 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Potato
+(115 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Plum
+(114 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Rice
+(113 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Fig
+(113 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(127 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(122 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Black Currant
+(119 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Guava
+(119 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Capsicum
+(117 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(115 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Ginger
+(115 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tomato
+(115 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>(E)-Hept-2-Enal
+(Soap,Fatty,Almond)</t>
+  </si>
+  <si>
+    <t>1-Dodecanol
+(Coconut, earthy, honey)</t>
+  </si>
+  <si>
+    <t>(Z)-Cinnamyl Acetate
+(Floral &amp; Sweet &amp; Spicy)</t>
+  </si>
+  <si>
+    <t>(E)-2-Hexenyl 
+Hexanoate
+(Herbal, natural)</t>
+  </si>
+  <si>
+    <t>(Z)-4-Hydroxy-6
+-Dodecenoic Acid Lactone
+(Peach, Fruity)</t>
+  </si>
+  <si>
+    <t>Tea
+(182 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(160 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tomato
+(160 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(155 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Strawberry
+(155 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apricot
+(150 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Passionfruit
+(149 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Cocoa
+(149 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Orange
+(147 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Fig
+(168 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(159 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(152 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Strawberry
+(146 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apricot
+(143 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(142 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tomato
+(141 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Pineapple
+(139 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Plum
+(137 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tea
+(143 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apple
+(136 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Tomato
+(135 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Mango
+(134 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Grape
+(132 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Corn
+(131 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Apricot
+(131 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Black Currant
+(131 flavor
+molecules)</t>
+  </si>
+  <si>
+    <t>Orange
+(129 flavor
+molecules)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +1094,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,7 +1126,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -324,23 +1142,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,17 +1465,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="11" width="24" customWidth="1"/>
@@ -657,7 +1483,7 @@
     <col min="13" max="13" width="27.7109375" customWidth="1"/>
     <col min="14" max="14" width="21.42578125" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" customWidth="1"/>
@@ -685,16 +1511,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>6</v>
@@ -709,359 +1535,954 @@
         <v>9</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="60">
+    <row r="2" spans="1:20" ht="45">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="J3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="O3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="P3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="R3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="S3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="45">
+      <c r="A6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="45">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="K7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="45">
+      <c r="A8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>42</v>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60">
-      <c r="A3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="8" t="s">
+    <row r="9" spans="1:20" ht="45">
+      <c r="A9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="45">
+      <c r="A10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="I10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="45">
+      <c r="A11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="45">
+      <c r="A12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="60">
+      <c r="A13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>36</v>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+    <row r="14" spans="1:20" ht="45">
+      <c r="A14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+    <row r="15" spans="1:20" ht="45">
+      <c r="A15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="4"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="4"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+    <row r="16" spans="1:20" ht="57.75">
+      <c r="A16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1077,8 +2498,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1094,8 +2515,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1111,8 +2532,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1128,8 +2549,8 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1144,14 +2565,17 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="12"/>
+    </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="3"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="3"/>
+      <c r="A25" s="13"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="3"/>

--- a/flavour_foodname.xlsx
+++ b/flavour_foodname.xlsx
@@ -67,11 +67,6 @@
 (Fatty &amp; Earthy)</t>
   </si>
   <si>
-    <t>Banana
-(206 flavor 
-molecules)</t>
-  </si>
-  <si>
     <t>Grape
  (149 flavor
 molecules)</t>
@@ -92,11 +87,6 @@
 molecules)</t>
   </si>
   <si>
-    <t>Pineapple
-(220 flavor
-molecules)</t>
-  </si>
-  <si>
     <t>Ananas, rå</t>
   </si>
   <si>
@@ -229,11 +219,6 @@
 molecules)</t>
   </si>
   <si>
-    <t>Apple
-(300 flavor
-molecules)</t>
-  </si>
-  <si>
     <t>Delta-Cadinene
 (Herbal &amp; Woody)</t>
   </si>
@@ -295,14 +280,6 @@
 molecules)</t>
   </si>
   <si>
-    <t>Black Currant
-(213 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Æble, uspec.,råt</t>
-  </si>
-  <si>
     <t>Vindrue, rå</t>
   </si>
   <si>
@@ -365,55 +342,10 @@
 molecules)</t>
   </si>
   <si>
-    <t>Grape
-(261 flavor
-molecules)</t>
-  </si>
-  <si>
     <t>(E)-Hept-2-Enal
 (Fresh &amp; Almond)</t>
   </si>
   <si>
-    <t>Pear
-(149 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Orange
-(245 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Red Currant
-(143 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Bitter Orange
-(22 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Avocado
-(134 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Elderberry
-(213 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Mango
-(238 flavor
-molecules)</t>
-  </si>
-  <si>
-    <t>Peach
-(199 flavor
-molecules)</t>
-  </si>
-  <si>
     <t>1-Hexanol
 (Fruity &amp; Sweet)</t>
   </si>
@@ -467,11 +399,6 @@
 molecules)</t>
   </si>
   <si>
-    <t>Kiwifruit
-(147 flavor
-molecules)</t>
-  </si>
-  <si>
     <t>Apple
 (185 flavor
 molecules)</t>
@@ -569,9 +496,6 @@
 (Citrus &amp; Nut)</t>
   </si>
   <si>
-    <t>Apperlsion, rå</t>
-  </si>
-  <si>
     <t>Mango, rå</t>
   </si>
   <si>
@@ -585,9 +509,6 @@
   </si>
   <si>
     <t>Avocado, rå</t>
-  </si>
-  <si>
-    <t>Blomme, rrå</t>
   </si>
   <si>
     <t>Ribs, rå</t>
@@ -779,10 +700,6 @@
 (Fennel, Sweet,Tropical))</t>
   </si>
   <si>
-    <t>(Z)-Hex-3-En-1-Ol
-(Leafy, Grass, Foliage)</t>
-  </si>
-  <si>
     <t>1-P-Menthen-9-Al
 ()</t>
   </si>
@@ -791,10 +708,6 @@
 (Sweet, Woody)</t>
   </si>
   <si>
-    <t>2,3-Butanedione
-(Butter,Caramel, Sweet)</t>
-  </si>
-  <si>
     <t>Tea
 (122 flavor
 molecules)</t>
@@ -875,16 +788,8 @@
 molecules)</t>
   </si>
   <si>
-    <t>(E)-Hept-2-Enal
-(Soap,Fatty,Almond)</t>
-  </si>
-  <si>
     <t>1-Dodecanol
 (Coconut, earthy, honey)</t>
-  </si>
-  <si>
-    <t>(Z)-Cinnamyl Acetate
-(Floral &amp; Sweet &amp; Spicy)</t>
   </si>
   <si>
     <t>(E)-2-Hexenyl 
@@ -942,11 +847,6 @@
 molecules)</t>
   </si>
   <si>
-    <t>Fig
-(168 flavor
-molecules)</t>
-  </si>
-  <si>
     <t>Tea
 (159 flavor
 molecules)</t>
@@ -1030,13 +930,383 @@
     <t>Orange
 (129 flavor
 molecules)</t>
+  </si>
+  <si>
+    <t>Æble, uspec., råt</t>
+  </si>
+  <si>
+    <t>Appelsion, rå</t>
+  </si>
+  <si>
+    <t>Blomme, rå</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Banana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(206 flavor 
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Pineapple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+(220 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(300 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Black Currant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(213 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(261 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(149 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kiwifruit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(147 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(245 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Red Currant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(143 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bitter Orange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(22 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elderberry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(213 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avocado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(134 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mango</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(238 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(168 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Peach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(199 flavor
+molecules)</t>
+    </r>
+  </si>
+  <si>
+    <t>(Z)-Cinnamyl
+Alcohol
+(Cinnamic &amp; Spicy)</t>
+  </si>
+  <si>
+    <t>(E)-Hept-2-Enal
+(Soap, Fatty, 
+Almond)</t>
+  </si>
+  <si>
+    <t>2,3-Butanedione
+(Butter, Caramel, 
+Sweet)</t>
+  </si>
+  <si>
+    <t>(Z)-Hex-3
+-En-1-Ol (Leafy, 
+Grass, Foliage)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +1371,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1126,7 +1408,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1142,20 +1424,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1166,6 +1436,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1465,13 +1750,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:T15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -1511,16 +1796,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>6</v>
@@ -1535,954 +1820,954 @@
         <v>9</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="S2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="T2" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="45">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="M3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45">
-      <c r="A4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="K4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="L4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="M4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="N4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="O5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="P5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="45">
-      <c r="A6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="Q6" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="45">
-      <c r="A7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="Q7" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="45">
-      <c r="A8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>122</v>
+      <c r="R8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45">
-      <c r="A10" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="F10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="G10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="M11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="N11" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="T11" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="45">
-      <c r="A12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>184</v>
+      <c r="F12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="60">
-      <c r="A13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="T13" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="45">
-      <c r="A14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="F14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>206</v>
+      <c r="G14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45">
-      <c r="A15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="A15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="F15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="G15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>224</v>
+      <c r="N15" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="57.75">
-      <c r="A16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>44</v>
+      <c r="F16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2499,7 +2784,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2516,7 +2801,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2533,7 +2818,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2550,7 +2835,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2566,16 +2851,16 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="13"/>
+      <c r="A23" s="9"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="13"/>
+      <c r="A24" s="9"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="13"/>
+      <c r="A25" s="9"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="3"/>
